--- a/data/pca/factorExposure/factorExposure_2011-11-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01016934189662009</v>
+        <v>0.01165743059026695</v>
       </c>
       <c r="C2">
-        <v>-0.03081035243211584</v>
+        <v>-0.02061170112194347</v>
       </c>
       <c r="D2">
-        <v>-0.01894999295507185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02444969744615293</v>
+      </c>
+      <c r="E2">
+        <v>0.01075086049240086</v>
+      </c>
+      <c r="F2">
+        <v>0.0301056198085813</v>
+      </c>
+      <c r="G2">
+        <v>-0.001889091144273675</v>
+      </c>
+      <c r="H2">
+        <v>0.02490852078158595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07327584912391355</v>
+        <v>0.08735049373741334</v>
       </c>
       <c r="C4">
-        <v>-0.06055097949030423</v>
+        <v>-0.02699981122343459</v>
       </c>
       <c r="D4">
-        <v>-0.0709347043926082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07804394556433955</v>
+      </c>
+      <c r="E4">
+        <v>0.009480072878674101</v>
+      </c>
+      <c r="F4">
+        <v>0.04181900408029054</v>
+      </c>
+      <c r="G4">
+        <v>0.01824504085049452</v>
+      </c>
+      <c r="H4">
+        <v>-0.04162667280934874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1101079297385043</v>
+        <v>0.123143560248956</v>
       </c>
       <c r="C6">
-        <v>-0.0649104065633197</v>
+        <v>-0.04430970816336183</v>
       </c>
       <c r="D6">
-        <v>0.003760021518349606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01775457415881615</v>
+      </c>
+      <c r="E6">
+        <v>-0.03253683955453526</v>
+      </c>
+      <c r="F6">
+        <v>0.04578076321536419</v>
+      </c>
+      <c r="G6">
+        <v>0.03866455908169181</v>
+      </c>
+      <c r="H6">
+        <v>0.1303461585774915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05527895083515102</v>
+        <v>0.06527031739911363</v>
       </c>
       <c r="C7">
-        <v>-0.03801021749661191</v>
+        <v>-0.01225311228567895</v>
       </c>
       <c r="D7">
-        <v>-0.03169794348155336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05417322415904494</v>
+      </c>
+      <c r="E7">
+        <v>0.03016606866412223</v>
+      </c>
+      <c r="F7">
+        <v>0.04391856704222753</v>
+      </c>
+      <c r="G7">
+        <v>-0.02370595533589239</v>
+      </c>
+      <c r="H7">
+        <v>-0.018342170222719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04054019826534369</v>
+        <v>0.04399982841310063</v>
       </c>
       <c r="C8">
-        <v>-0.01798149800615879</v>
+        <v>-0.006313762075642428</v>
       </c>
       <c r="D8">
-        <v>-0.06258320115726802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03068101613768432</v>
+      </c>
+      <c r="E8">
+        <v>0.008948642472850085</v>
+      </c>
+      <c r="F8">
+        <v>0.07125148662436044</v>
+      </c>
+      <c r="G8">
+        <v>0.08362940264956867</v>
+      </c>
+      <c r="H8">
+        <v>0.009121902206577374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07037963371511088</v>
+        <v>0.0799642412361885</v>
       </c>
       <c r="C9">
-        <v>-0.04709486090065249</v>
+        <v>-0.01581645278694249</v>
       </c>
       <c r="D9">
-        <v>-0.0675029555534182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06932692509535786</v>
+      </c>
+      <c r="E9">
+        <v>0.02405895431658775</v>
+      </c>
+      <c r="F9">
+        <v>0.03485300908986049</v>
+      </c>
+      <c r="G9">
+        <v>0.02907059472436962</v>
+      </c>
+      <c r="H9">
+        <v>-0.04384532339493106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02350576240171564</v>
+        <v>0.04638609399743261</v>
       </c>
       <c r="C10">
-        <v>-0.01710571681619914</v>
+        <v>-0.08968297699086759</v>
       </c>
       <c r="D10">
-        <v>0.1694357238887121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1669155258843552</v>
+      </c>
+      <c r="E10">
+        <v>0.03600670517195918</v>
+      </c>
+      <c r="F10">
+        <v>0.05395022777315096</v>
+      </c>
+      <c r="G10">
+        <v>-0.03755325803433901</v>
+      </c>
+      <c r="H10">
+        <v>0.05289348254720178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06693948359440774</v>
+        <v>0.07344578626072845</v>
       </c>
       <c r="C11">
-        <v>-0.04379387651315476</v>
+        <v>-0.009945358064195485</v>
       </c>
       <c r="D11">
-        <v>-0.05582260779079208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0640651373334814</v>
+      </c>
+      <c r="E11">
+        <v>-0.001643329494443694</v>
+      </c>
+      <c r="F11">
+        <v>0.03444115326650819</v>
+      </c>
+      <c r="G11">
+        <v>0.04515256878883272</v>
+      </c>
+      <c r="H11">
+        <v>-0.06638291085146146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05728300982040137</v>
+        <v>0.06706910093787442</v>
       </c>
       <c r="C12">
-        <v>-0.05312813932290043</v>
+        <v>-0.0227726811982132</v>
       </c>
       <c r="D12">
-        <v>-0.04624736046940003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05572306028906714</v>
+      </c>
+      <c r="E12">
+        <v>0.01044608877346569</v>
+      </c>
+      <c r="F12">
+        <v>0.02367555438175863</v>
+      </c>
+      <c r="G12">
+        <v>0.02119749686580837</v>
+      </c>
+      <c r="H12">
+        <v>-0.02990775873627313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06937454159778077</v>
+        <v>0.07069365116959257</v>
       </c>
       <c r="C13">
-        <v>-0.05169539715083748</v>
+        <v>-0.02223800477321894</v>
       </c>
       <c r="D13">
-        <v>-0.03411120180180214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04382906946799939</v>
+      </c>
+      <c r="E13">
+        <v>0.005062509436079111</v>
+      </c>
+      <c r="F13">
+        <v>0.02312433818273063</v>
+      </c>
+      <c r="G13">
+        <v>0.02479345201998792</v>
+      </c>
+      <c r="H13">
+        <v>-0.05709669875384474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03032856983838384</v>
+        <v>0.03971416458350158</v>
       </c>
       <c r="C14">
-        <v>-0.0313089426664764</v>
+        <v>-0.02506901028986786</v>
       </c>
       <c r="D14">
-        <v>0.008595022922806596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01782841927070965</v>
+      </c>
+      <c r="E14">
+        <v>0.02490384642219082</v>
+      </c>
+      <c r="F14">
+        <v>0.01505384620533303</v>
+      </c>
+      <c r="G14">
+        <v>0.01843060539130134</v>
+      </c>
+      <c r="H14">
+        <v>-0.06521257653917019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04176050563447672</v>
+        <v>0.04107102469734552</v>
       </c>
       <c r="C15">
-        <v>-0.01484716648353968</v>
+        <v>-0.00384614167804267</v>
       </c>
       <c r="D15">
-        <v>-0.02101286528153904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01055954070116215</v>
+      </c>
+      <c r="E15">
+        <v>0.03473659053629567</v>
+      </c>
+      <c r="F15">
+        <v>0.002719760739856421</v>
+      </c>
+      <c r="G15">
+        <v>0.0322545914425937</v>
+      </c>
+      <c r="H15">
+        <v>-0.03000579458630538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05672698975693896</v>
+        <v>0.06929440885774663</v>
       </c>
       <c r="C16">
-        <v>-0.04148994319946614</v>
+        <v>-0.01284828468416589</v>
       </c>
       <c r="D16">
-        <v>-0.05530840907844216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06553983412578425</v>
+      </c>
+      <c r="E16">
+        <v>0.004446627372320672</v>
+      </c>
+      <c r="F16">
+        <v>0.03056530532423281</v>
+      </c>
+      <c r="G16">
+        <v>0.01885136004411239</v>
+      </c>
+      <c r="H16">
+        <v>-0.05030050076234446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06404149990494852</v>
+        <v>0.06316673259126764</v>
       </c>
       <c r="C20">
-        <v>-0.03040287071783835</v>
+        <v>-0.0008182080035751211</v>
       </c>
       <c r="D20">
-        <v>-0.04396759452998874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04225887958361813</v>
+      </c>
+      <c r="E20">
+        <v>0.004284607875410496</v>
+      </c>
+      <c r="F20">
+        <v>0.02563937861158997</v>
+      </c>
+      <c r="G20">
+        <v>0.01849992466307609</v>
+      </c>
+      <c r="H20">
+        <v>-0.04660336820135348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03305881200118772</v>
+        <v>0.02938822524452623</v>
       </c>
       <c r="C21">
-        <v>-0.01066798271113023</v>
+        <v>0.004548544283247128</v>
       </c>
       <c r="D21">
-        <v>-0.01071098445221845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01826256461848304</v>
+      </c>
+      <c r="E21">
+        <v>0.04020061867294568</v>
+      </c>
+      <c r="F21">
+        <v>-0.01319317316780243</v>
+      </c>
+      <c r="G21">
+        <v>0.01173834998955857</v>
+      </c>
+      <c r="H21">
+        <v>0.04535107638083006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08046463225736147</v>
+        <v>0.07047294289759155</v>
       </c>
       <c r="C22">
-        <v>-0.07207345568971914</v>
+        <v>-0.01330269225101901</v>
       </c>
       <c r="D22">
-        <v>-0.1483691971316209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1107719229502106</v>
+      </c>
+      <c r="E22">
+        <v>0.6091360225615268</v>
+      </c>
+      <c r="F22">
+        <v>-0.04332816380626441</v>
+      </c>
+      <c r="G22">
+        <v>-0.1746535702088653</v>
+      </c>
+      <c r="H22">
+        <v>0.1452807712763046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0815642607903774</v>
+        <v>0.0714246361633581</v>
       </c>
       <c r="C23">
-        <v>-0.07054555848792721</v>
+        <v>-0.01164019948149464</v>
       </c>
       <c r="D23">
-        <v>-0.1496624379068257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.111534224277452</v>
+      </c>
+      <c r="E23">
+        <v>0.6112769269941301</v>
+      </c>
+      <c r="F23">
+        <v>-0.04256606020963733</v>
+      </c>
+      <c r="G23">
+        <v>-0.1692196303190987</v>
+      </c>
+      <c r="H23">
+        <v>0.140716535778563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07255794343316252</v>
+        <v>0.07906874056957783</v>
       </c>
       <c r="C24">
-        <v>-0.05276340554438817</v>
+        <v>-0.01719712928867783</v>
       </c>
       <c r="D24">
-        <v>-0.05936448153277718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06507922966432796</v>
+      </c>
+      <c r="E24">
+        <v>0.0117181825882823</v>
+      </c>
+      <c r="F24">
+        <v>0.03742487874896951</v>
+      </c>
+      <c r="G24">
+        <v>0.03761390748891733</v>
+      </c>
+      <c r="H24">
+        <v>-0.03227631272800358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07192640652303374</v>
+        <v>0.07811705395679856</v>
       </c>
       <c r="C25">
-        <v>-0.05640238001638541</v>
+        <v>-0.0231652431651994</v>
       </c>
       <c r="D25">
-        <v>-0.05576064178123433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0583119063426128</v>
+      </c>
+      <c r="E25">
+        <v>0.01334939967008354</v>
+      </c>
+      <c r="F25">
+        <v>0.03259912962332684</v>
+      </c>
+      <c r="G25">
+        <v>0.04430672787445645</v>
+      </c>
+      <c r="H25">
+        <v>-0.04358389518708817</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04423234921389341</v>
+        <v>0.0438762121423325</v>
       </c>
       <c r="C26">
-        <v>-0.01512408977302325</v>
+        <v>0.001480565958731455</v>
       </c>
       <c r="D26">
-        <v>-0.01092891840892016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0210034782743039</v>
+      </c>
+      <c r="E26">
+        <v>0.04151968992534126</v>
+      </c>
+      <c r="F26">
+        <v>0.02797451547056551</v>
+      </c>
+      <c r="G26">
+        <v>0.02815744960269088</v>
+      </c>
+      <c r="H26">
+        <v>-0.04515527651125116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0389235240088607</v>
+        <v>0.06727395913189421</v>
       </c>
       <c r="C28">
-        <v>-0.05430155605813089</v>
+        <v>-0.1592221880120959</v>
       </c>
       <c r="D28">
-        <v>0.3093648329683962</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2759327846923897</v>
+      </c>
+      <c r="E28">
+        <v>0.04245407406689706</v>
+      </c>
+      <c r="F28">
+        <v>0.05358027824145183</v>
+      </c>
+      <c r="G28">
+        <v>0.02190576264023486</v>
+      </c>
+      <c r="H28">
+        <v>0.05690147542835661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04420102290913953</v>
+        <v>0.04807228615421303</v>
       </c>
       <c r="C29">
-        <v>-0.04050669995024515</v>
+        <v>-0.02751219604722898</v>
       </c>
       <c r="D29">
-        <v>0.001164166962984791</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01878573412836066</v>
+      </c>
+      <c r="E29">
+        <v>0.05490625511582918</v>
+      </c>
+      <c r="F29">
+        <v>0.01618557826936064</v>
+      </c>
+      <c r="G29">
+        <v>0.006422688256553379</v>
+      </c>
+      <c r="H29">
+        <v>-0.07928081503823023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1293484796166051</v>
+        <v>0.1260960514062169</v>
       </c>
       <c r="C30">
-        <v>-0.1019998178962751</v>
+        <v>-0.04192829942845216</v>
       </c>
       <c r="D30">
-        <v>-0.1106104798988522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09415406727747969</v>
+      </c>
+      <c r="E30">
+        <v>0.05566358401584304</v>
+      </c>
+      <c r="F30">
+        <v>0.01779364245696216</v>
+      </c>
+      <c r="G30">
+        <v>0.06993629533277974</v>
+      </c>
+      <c r="H30">
+        <v>0.03856526440882432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04852066285053041</v>
+        <v>0.04937815834324925</v>
       </c>
       <c r="C31">
-        <v>-0.02701115375501933</v>
+        <v>-0.004821136814497306</v>
       </c>
       <c r="D31">
-        <v>-0.01892840029514404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0366027208327204</v>
+      </c>
+      <c r="E31">
+        <v>0.02116738072370296</v>
+      </c>
+      <c r="F31">
+        <v>0.008989723692416837</v>
+      </c>
+      <c r="G31">
+        <v>-0.001743366283110213</v>
+      </c>
+      <c r="H31">
+        <v>-0.07027062927243853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03453332216719128</v>
+        <v>0.03691187069510601</v>
       </c>
       <c r="C32">
-        <v>-0.02538590054345646</v>
+        <v>-0.01920777081617069</v>
       </c>
       <c r="D32">
-        <v>-0.03151868714168384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01441613785342126</v>
+      </c>
+      <c r="E32">
+        <v>0.04292311904644382</v>
+      </c>
+      <c r="F32">
+        <v>-0.003282998957068214</v>
+      </c>
+      <c r="G32">
+        <v>0.04930340936162999</v>
+      </c>
+      <c r="H32">
+        <v>-0.007949074246257961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08423444249281434</v>
+        <v>0.09384630069096926</v>
       </c>
       <c r="C33">
-        <v>-0.04765793164234357</v>
+        <v>-0.01478285754582249</v>
       </c>
       <c r="D33">
-        <v>-0.04610033179944276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05429327491799175</v>
+      </c>
+      <c r="E33">
+        <v>0.01059806180255218</v>
+      </c>
+      <c r="F33">
+        <v>0.001536967513027121</v>
+      </c>
+      <c r="G33">
+        <v>0.008633956842255356</v>
+      </c>
+      <c r="H33">
+        <v>-0.06540816378489805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0582683159490992</v>
+        <v>0.06698205237038023</v>
       </c>
       <c r="C34">
-        <v>-0.03007980430795638</v>
+        <v>-0.004894436424295186</v>
       </c>
       <c r="D34">
-        <v>-0.04953237594179623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0481404664586185</v>
+      </c>
+      <c r="E34">
+        <v>0.008983381685926269</v>
+      </c>
+      <c r="F34">
+        <v>0.02021783203596508</v>
+      </c>
+      <c r="G34">
+        <v>0.02791313194104248</v>
+      </c>
+      <c r="H34">
+        <v>-0.05482621283563375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03545300004465306</v>
+        <v>0.03747502083646172</v>
       </c>
       <c r="C35">
-        <v>-0.01464172351888493</v>
+        <v>-0.003296507407463639</v>
       </c>
       <c r="D35">
-        <v>-0.01970398458438192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01908694197830472</v>
+      </c>
+      <c r="E35">
+        <v>0.02285944087722009</v>
+      </c>
+      <c r="F35">
+        <v>-0.01666257051185965</v>
+      </c>
+      <c r="G35">
+        <v>-0.002949759412871676</v>
+      </c>
+      <c r="H35">
+        <v>-0.03492641456152697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02603768784345708</v>
+        <v>0.02771890967679845</v>
       </c>
       <c r="C36">
-        <v>-0.02075913042134231</v>
+        <v>-0.008768388841637895</v>
       </c>
       <c r="D36">
-        <v>-0.0200211211950523</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02139028042897007</v>
+      </c>
+      <c r="E36">
+        <v>0.03222564369027215</v>
+      </c>
+      <c r="F36">
+        <v>0.02723696950253401</v>
+      </c>
+      <c r="G36">
+        <v>0.01432181427761191</v>
+      </c>
+      <c r="H36">
+        <v>-0.04475998317067951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05067551508153458</v>
+        <v>0.04816763879409586</v>
       </c>
       <c r="C38">
-        <v>-0.01149416621054778</v>
+        <v>0.007050333667771838</v>
       </c>
       <c r="D38">
-        <v>-0.007129124613016318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02170084501203945</v>
+      </c>
+      <c r="E38">
+        <v>0.04944575420029555</v>
+      </c>
+      <c r="F38">
+        <v>-0.001237854422810774</v>
+      </c>
+      <c r="G38">
+        <v>0.004472178234151129</v>
+      </c>
+      <c r="H38">
+        <v>-0.0258853886481801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08958188385712815</v>
+        <v>0.1010640097880976</v>
       </c>
       <c r="C39">
-        <v>-0.0751327955350703</v>
+        <v>-0.03754523200055004</v>
       </c>
       <c r="D39">
-        <v>-0.04700426523434854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07066460034743055</v>
+      </c>
+      <c r="E39">
+        <v>0.00548710732239655</v>
+      </c>
+      <c r="F39">
+        <v>0.003229169788862387</v>
+      </c>
+      <c r="G39">
+        <v>0.04971678434400885</v>
+      </c>
+      <c r="H39">
+        <v>-0.02131618910977051</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07989002179894389</v>
+        <v>0.06120637764559703</v>
       </c>
       <c r="C40">
-        <v>-0.04090255545050327</v>
+        <v>0.004147660884435022</v>
       </c>
       <c r="D40">
-        <v>-0.01256739442770206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03581260646624863</v>
+      </c>
+      <c r="E40">
+        <v>0.03803015546706407</v>
+      </c>
+      <c r="F40">
+        <v>-0.03429443368576676</v>
+      </c>
+      <c r="G40">
+        <v>0.06154989484329483</v>
+      </c>
+      <c r="H40">
+        <v>0.071751363309733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04597288931665681</v>
+        <v>0.04678846796154117</v>
       </c>
       <c r="C41">
-        <v>-0.02023577562754206</v>
+        <v>0.001715135035914549</v>
       </c>
       <c r="D41">
-        <v>-0.0332261838003655</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03310766370081268</v>
+      </c>
+      <c r="E41">
+        <v>0.0008795606308519996</v>
+      </c>
+      <c r="F41">
+        <v>-0.01341434678967676</v>
+      </c>
+      <c r="G41">
+        <v>0.008095237200393922</v>
+      </c>
+      <c r="H41">
+        <v>-0.0295444736571011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05402822127905286</v>
+        <v>0.06022273729878871</v>
       </c>
       <c r="C43">
-        <v>-0.03297334775430307</v>
+        <v>-0.01294825244163388</v>
       </c>
       <c r="D43">
-        <v>-0.007013871710141418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03323167288366347</v>
+      </c>
+      <c r="E43">
+        <v>0.01713873726127511</v>
+      </c>
+      <c r="F43">
+        <v>0.01420690267657546</v>
+      </c>
+      <c r="G43">
+        <v>-0.01514548885312228</v>
+      </c>
+      <c r="H43">
+        <v>-0.06341853179096402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09797104502530447</v>
+        <v>0.09538300248588277</v>
       </c>
       <c r="C44">
-        <v>-0.03626374243467946</v>
+        <v>0.00231159425255834</v>
       </c>
       <c r="D44">
-        <v>-0.04706187812688892</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05379466623945731</v>
+      </c>
+      <c r="E44">
+        <v>0.07439103228203434</v>
+      </c>
+      <c r="F44">
+        <v>0.08157400870024302</v>
+      </c>
+      <c r="G44">
+        <v>0.07101830565828407</v>
+      </c>
+      <c r="H44">
+        <v>-0.05270554823110184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02461080537081099</v>
+        <v>0.03571096471501351</v>
       </c>
       <c r="C46">
-        <v>-0.02367604140522618</v>
+        <v>-0.01143031172649098</v>
       </c>
       <c r="D46">
-        <v>-0.0325560748732079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.04121147211268499</v>
+      </c>
+      <c r="E46">
+        <v>0.02940834000238493</v>
+      </c>
+      <c r="F46">
+        <v>0.01582740391041068</v>
+      </c>
+      <c r="G46">
+        <v>-0.004373927188941811</v>
+      </c>
+      <c r="H46">
+        <v>-0.03347519738761634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03087793064418763</v>
+        <v>0.04019865006096081</v>
       </c>
       <c r="C47">
-        <v>-0.02387488392803133</v>
+        <v>-0.01792649445745178</v>
       </c>
       <c r="D47">
-        <v>0.003857034847899779</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01352432095978635</v>
+      </c>
+      <c r="E47">
+        <v>0.03907545629942594</v>
+      </c>
+      <c r="F47">
+        <v>-0.007329005042587895</v>
+      </c>
+      <c r="G47">
+        <v>-0.02772126328399878</v>
+      </c>
+      <c r="H47">
+        <v>-0.0351204781732429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03649907257983051</v>
+        <v>0.03963283193803358</v>
       </c>
       <c r="C48">
-        <v>-0.0285341709761235</v>
+        <v>-0.0120632006897104</v>
       </c>
       <c r="D48">
-        <v>-0.0283804881375014</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02403592241927272</v>
+      </c>
+      <c r="E48">
+        <v>0.0391738011809361</v>
+      </c>
+      <c r="F48">
+        <v>0.008778268843719598</v>
+      </c>
+      <c r="G48">
+        <v>0.02211623251331334</v>
+      </c>
+      <c r="H48">
+        <v>-0.0273190581084735</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1622031449993983</v>
+        <v>0.1977399175331284</v>
       </c>
       <c r="C49">
-        <v>-0.05562819449743032</v>
+        <v>-0.0345204246272216</v>
       </c>
       <c r="D49">
-        <v>-0.002320591134101041</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02849620924684593</v>
+      </c>
+      <c r="E49">
+        <v>-0.1735861205199469</v>
+      </c>
+      <c r="F49">
+        <v>0.03626225734683558</v>
+      </c>
+      <c r="G49">
+        <v>-0.147374843817045</v>
+      </c>
+      <c r="H49">
+        <v>0.2273516163671828</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04372087339472642</v>
+        <v>0.04572110853451088</v>
       </c>
       <c r="C50">
-        <v>-0.02703163061546167</v>
+        <v>-0.005693521707213601</v>
       </c>
       <c r="D50">
-        <v>-0.03343972579242759</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04049763646383712</v>
+      </c>
+      <c r="E50">
+        <v>0.02959487554801273</v>
+      </c>
+      <c r="F50">
+        <v>0.003486052855861131</v>
+      </c>
+      <c r="G50">
+        <v>-0.001522740090642019</v>
+      </c>
+      <c r="H50">
+        <v>-0.07167162298597697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02407359289354534</v>
+        <v>0.03385744935782814</v>
       </c>
       <c r="C51">
-        <v>-0.00577251542991393</v>
+        <v>-0.004504164851548595</v>
       </c>
       <c r="D51">
-        <v>0.00272148750688486</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0022779783704344</v>
+      </c>
+      <c r="E51">
+        <v>0.007634805952713639</v>
+      </c>
+      <c r="F51">
+        <v>0.01169295545771416</v>
+      </c>
+      <c r="G51">
+        <v>-0.01921099754198452</v>
+      </c>
+      <c r="H51">
+        <v>0.01967421495242458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1500506874112616</v>
+        <v>0.1600896947498192</v>
       </c>
       <c r="C53">
-        <v>-0.08497224312893499</v>
+        <v>-0.05014389861268633</v>
       </c>
       <c r="D53">
-        <v>0.00879321019839898</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03048739584775367</v>
+      </c>
+      <c r="E53">
+        <v>-0.03149830905566012</v>
+      </c>
+      <c r="F53">
+        <v>0.0001120633258714593</v>
+      </c>
+      <c r="G53">
+        <v>-0.005184075260990458</v>
+      </c>
+      <c r="H53">
+        <v>-0.2000090203711392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05758514595678139</v>
+        <v>0.05807093099563718</v>
       </c>
       <c r="C54">
-        <v>-0.03382645597416497</v>
+        <v>-0.01676973934481559</v>
       </c>
       <c r="D54">
-        <v>-0.01816899631393069</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0192920999814457</v>
+      </c>
+      <c r="E54">
+        <v>0.053347652518022</v>
+      </c>
+      <c r="F54">
+        <v>0.01725224362398279</v>
+      </c>
+      <c r="G54">
+        <v>0.05410500156752748</v>
+      </c>
+      <c r="H54">
+        <v>-0.04383617453336189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09717113593110249</v>
+        <v>0.1006527194747279</v>
       </c>
       <c r="C55">
-        <v>-0.05487500859027842</v>
+        <v>-0.026514398376481</v>
       </c>
       <c r="D55">
-        <v>-0.009591774583690102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03222784810063722</v>
+      </c>
+      <c r="E55">
+        <v>-0.001212721811275138</v>
+      </c>
+      <c r="F55">
+        <v>0.01625976610316861</v>
+      </c>
+      <c r="G55">
+        <v>0.01532275770417763</v>
+      </c>
+      <c r="H55">
+        <v>-0.153524831784014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.146107442220527</v>
+        <v>0.1547380033821452</v>
       </c>
       <c r="C56">
-        <v>-0.08843770505474945</v>
+        <v>-0.04463438876102477</v>
       </c>
       <c r="D56">
-        <v>0.005168585681546069</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04936190070606421</v>
+      </c>
+      <c r="E56">
+        <v>-0.01431581155334425</v>
+      </c>
+      <c r="F56">
+        <v>0.02238110955306082</v>
+      </c>
+      <c r="G56">
+        <v>0.006255485974392131</v>
+      </c>
+      <c r="H56">
+        <v>-0.2055681001888066</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1321885263149704</v>
+        <v>0.09911796809140362</v>
       </c>
       <c r="C58">
-        <v>0.01681170306786519</v>
+        <v>0.0702757260208548</v>
       </c>
       <c r="D58">
-        <v>-0.05039155604401892</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0174032692169691</v>
+      </c>
+      <c r="E58">
+        <v>0.119783599145459</v>
+      </c>
+      <c r="F58">
+        <v>0.03102832706318234</v>
+      </c>
+      <c r="G58">
+        <v>-0.07480474260104088</v>
+      </c>
+      <c r="H58">
+        <v>0.1783971624154407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1152796555021244</v>
+        <v>0.1462079121661627</v>
       </c>
       <c r="C59">
-        <v>-0.06813614404081335</v>
+        <v>-0.1763277826024898</v>
       </c>
       <c r="D59">
-        <v>0.4093314413821307</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3280548762045422</v>
+      </c>
+      <c r="E59">
+        <v>0.03574764239252914</v>
+      </c>
+      <c r="F59">
+        <v>0.002345910232262024</v>
+      </c>
+      <c r="G59">
+        <v>0.008905358225446646</v>
+      </c>
+      <c r="H59">
+        <v>-0.01494166518633496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2052780890474143</v>
+        <v>0.2381364274552711</v>
       </c>
       <c r="C60">
-        <v>-0.1045934860343</v>
+        <v>-0.06211778941330532</v>
       </c>
       <c r="D60">
-        <v>0.0003911371763111255</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.05362738907318243</v>
+      </c>
+      <c r="E60">
+        <v>-0.1169491310574459</v>
+      </c>
+      <c r="F60">
+        <v>0.04659053239602266</v>
+      </c>
+      <c r="G60">
+        <v>-0.03144053657124973</v>
+      </c>
+      <c r="H60">
+        <v>0.1479440929698172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07769937774687272</v>
+        <v>0.08552442050840954</v>
       </c>
       <c r="C61">
-        <v>-0.04978781911490915</v>
+        <v>-0.02215513978964834</v>
       </c>
       <c r="D61">
-        <v>-0.02993492563717684</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04799550490152577</v>
+      </c>
+      <c r="E61">
+        <v>0.007982382015540405</v>
+      </c>
+      <c r="F61">
+        <v>0.01372975236352069</v>
+      </c>
+      <c r="G61">
+        <v>0.03223945838026376</v>
+      </c>
+      <c r="H61">
+        <v>-0.06458491319652535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1315270470084259</v>
+        <v>0.1366410375067399</v>
       </c>
       <c r="C62">
-        <v>-0.05712074020738129</v>
+        <v>-0.01709917153271332</v>
       </c>
       <c r="D62">
-        <v>0.01084130093818223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04314780033060202</v>
+      </c>
+      <c r="E62">
+        <v>-0.04742528702636457</v>
+      </c>
+      <c r="F62">
+        <v>-0.02279089212245393</v>
+      </c>
+      <c r="G62">
+        <v>0.03194110407981573</v>
+      </c>
+      <c r="H62">
+        <v>-0.1965959143822253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04978031341931462</v>
+        <v>0.0475784981198527</v>
       </c>
       <c r="C63">
-        <v>-0.02612036144642456</v>
+        <v>-0.007506816018247277</v>
       </c>
       <c r="D63">
-        <v>-0.02742877709570887</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0266504877164912</v>
+      </c>
+      <c r="E63">
+        <v>0.04074564140514427</v>
+      </c>
+      <c r="F63">
+        <v>0.0004464942380018305</v>
+      </c>
+      <c r="G63">
+        <v>0.03590941746670927</v>
+      </c>
+      <c r="H63">
+        <v>-0.03510266818254144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1066699432641875</v>
+        <v>0.1107474024400517</v>
       </c>
       <c r="C64">
-        <v>-0.04618724941637233</v>
+        <v>-0.02022337186770703</v>
       </c>
       <c r="D64">
-        <v>-0.01606928401908764</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02840265688632959</v>
+      </c>
+      <c r="E64">
+        <v>0.04070208093691245</v>
+      </c>
+      <c r="F64">
+        <v>0.04845086037802798</v>
+      </c>
+      <c r="G64">
+        <v>0.0579670152670588</v>
+      </c>
+      <c r="H64">
+        <v>-0.02565474614383587</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1255117285216436</v>
+        <v>0.1307093470708688</v>
       </c>
       <c r="C65">
-        <v>-0.07014619855370609</v>
+        <v>-0.0467162642459784</v>
       </c>
       <c r="D65">
-        <v>-0.003804289273316184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02031759457106825</v>
+      </c>
+      <c r="E65">
+        <v>-0.01070715646734287</v>
+      </c>
+      <c r="F65">
+        <v>0.0316632007745028</v>
+      </c>
+      <c r="G65">
+        <v>0.05930761016609244</v>
+      </c>
+      <c r="H65">
+        <v>0.1531630136218878</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1482550287200912</v>
+        <v>0.152971678769531</v>
       </c>
       <c r="C66">
-        <v>-0.08909932163132521</v>
+        <v>-0.0260958900534068</v>
       </c>
       <c r="D66">
-        <v>-0.09049152607261106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1086256587095967</v>
+      </c>
+      <c r="E66">
+        <v>-0.0243544649659699</v>
+      </c>
+      <c r="F66">
+        <v>0.005527577944618496</v>
+      </c>
+      <c r="G66">
+        <v>0.07527962312849579</v>
+      </c>
+      <c r="H66">
+        <v>-0.0881521983615559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07900044219825385</v>
+        <v>0.08689972880608658</v>
       </c>
       <c r="C67">
-        <v>-0.01877464848162649</v>
+        <v>0.003086159195748547</v>
       </c>
       <c r="D67">
-        <v>-0.01591778312501826</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03383761188613445</v>
+      </c>
+      <c r="E67">
+        <v>0.02067077427260542</v>
+      </c>
+      <c r="F67">
+        <v>0.01508000692909277</v>
+      </c>
+      <c r="G67">
+        <v>-0.01162613855129221</v>
+      </c>
+      <c r="H67">
+        <v>-0.02217177210209136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04916560266326903</v>
+        <v>0.06160114134539987</v>
       </c>
       <c r="C68">
-        <v>-0.03839372322058485</v>
+        <v>-0.1270297837527334</v>
       </c>
       <c r="D68">
-        <v>0.2617546925316444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2481559841954581</v>
+      </c>
+      <c r="E68">
+        <v>0.04616923823603806</v>
+      </c>
+      <c r="F68">
+        <v>0.01147757585582115</v>
+      </c>
+      <c r="G68">
+        <v>-0.001440842702344264</v>
+      </c>
+      <c r="H68">
+        <v>-0.01826150251900135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05427350300656616</v>
+        <v>0.05288939054508087</v>
       </c>
       <c r="C69">
-        <v>-0.02375657654996204</v>
+        <v>-0.00292992629397263</v>
       </c>
       <c r="D69">
-        <v>-0.01995863873526792</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02161514440226743</v>
+      </c>
+      <c r="E69">
+        <v>0.02311192705368535</v>
+      </c>
+      <c r="F69">
+        <v>-0.01088598340611528</v>
+      </c>
+      <c r="G69">
+        <v>0.001228037530077856</v>
+      </c>
+      <c r="H69">
+        <v>-0.04599388667058237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.006479833875514391</v>
+        <v>0.03085558719330053</v>
       </c>
       <c r="C70">
-        <v>0.001638570404458939</v>
+        <v>-0.004955027517894784</v>
       </c>
       <c r="D70">
-        <v>0.01074148457644229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.005638257946852274</v>
+      </c>
+      <c r="E70">
+        <v>-0.02391917469269663</v>
+      </c>
+      <c r="F70">
+        <v>-0.007963356451284855</v>
+      </c>
+      <c r="G70">
+        <v>-0.02602786747823772</v>
+      </c>
+      <c r="H70">
+        <v>0.03486189996766374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04561489790208686</v>
+        <v>0.06661671653313181</v>
       </c>
       <c r="C71">
-        <v>-0.03563552132186573</v>
+        <v>-0.1405824394463211</v>
       </c>
       <c r="D71">
-        <v>0.2915553819277503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2712192244712057</v>
+      </c>
+      <c r="E71">
+        <v>0.04616767838140592</v>
+      </c>
+      <c r="F71">
+        <v>0.03825957071474655</v>
+      </c>
+      <c r="G71">
+        <v>-0.003223807252933449</v>
+      </c>
+      <c r="H71">
+        <v>-0.01287535813631743</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1364331854819778</v>
+        <v>0.1412795994640936</v>
       </c>
       <c r="C72">
-        <v>-0.06435568039802296</v>
+        <v>-0.03204666539955019</v>
       </c>
       <c r="D72">
-        <v>0.01631772886230674</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.009484187156185181</v>
+      </c>
+      <c r="E72">
+        <v>-0.04348134886962791</v>
+      </c>
+      <c r="F72">
+        <v>-0.1604164350624967</v>
+      </c>
+      <c r="G72">
+        <v>0.1088100684139475</v>
+      </c>
+      <c r="H72">
+        <v>0.002313883780287301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2809417102969342</v>
+        <v>0.2848556543888285</v>
       </c>
       <c r="C73">
-        <v>-0.1010644202871509</v>
+        <v>-0.005241467976926574</v>
       </c>
       <c r="D73">
-        <v>-0.04182950368615352</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09634793808918447</v>
+      </c>
+      <c r="E73">
+        <v>-0.2651274411941595</v>
+      </c>
+      <c r="F73">
+        <v>0.0590002057532508</v>
+      </c>
+      <c r="G73">
+        <v>-0.2593709518773571</v>
+      </c>
+      <c r="H73">
+        <v>0.4027071635451768</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07593654823537968</v>
+        <v>0.08856180939916473</v>
       </c>
       <c r="C74">
-        <v>-0.07367566819931036</v>
+        <v>-0.04437837313405599</v>
       </c>
       <c r="D74">
-        <v>-0.006373835780177798</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05084757461433374</v>
+      </c>
+      <c r="E74">
+        <v>-0.006230256525291756</v>
+      </c>
+      <c r="F74">
+        <v>0.0007334521973743217</v>
+      </c>
+      <c r="G74">
+        <v>-0.0342522395427189</v>
+      </c>
+      <c r="H74">
+        <v>-0.134218107011132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1001260955190407</v>
+        <v>0.102321888374998</v>
       </c>
       <c r="C75">
-        <v>-0.05383449156085651</v>
+        <v>-0.01787309770145328</v>
       </c>
       <c r="D75">
-        <v>-0.002346827487949852</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02891726898198938</v>
+      </c>
+      <c r="E75">
+        <v>0.001113397504675832</v>
+      </c>
+      <c r="F75">
+        <v>-0.0007257224163163755</v>
+      </c>
+      <c r="G75">
+        <v>-0.008544076662635566</v>
+      </c>
+      <c r="H75">
+        <v>-0.09836437311580032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1261403312574013</v>
+        <v>0.1378862633259447</v>
       </c>
       <c r="C76">
-        <v>-0.07604292823183224</v>
+        <v>-0.03649820426045274</v>
       </c>
       <c r="D76">
-        <v>-0.01953762709651183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06065968161005226</v>
+      </c>
+      <c r="E76">
+        <v>0.00827927508667292</v>
+      </c>
+      <c r="F76">
+        <v>0.03010363539226628</v>
+      </c>
+      <c r="G76">
+        <v>0.008863312943136942</v>
+      </c>
+      <c r="H76">
+        <v>-0.2280642874147698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1166956442296001</v>
+        <v>0.09920883577672911</v>
       </c>
       <c r="C77">
-        <v>-0.04172089505482359</v>
+        <v>0.01020618204139185</v>
       </c>
       <c r="D77">
-        <v>-0.07354436093425397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04480564824094708</v>
+      </c>
+      <c r="E77">
+        <v>0.04681374878579522</v>
+      </c>
+      <c r="F77">
+        <v>0.0798306961708861</v>
+      </c>
+      <c r="G77">
+        <v>0.8007119020784659</v>
+      </c>
+      <c r="H77">
+        <v>0.3261151583192159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1057725697150919</v>
+        <v>0.1518327439021134</v>
       </c>
       <c r="C78">
-        <v>-0.0479860445717671</v>
+        <v>-0.02998958207642426</v>
       </c>
       <c r="D78">
-        <v>-0.08333312096385161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08447993465844376</v>
+      </c>
+      <c r="E78">
+        <v>0.0573868774267219</v>
+      </c>
+      <c r="F78">
+        <v>0.05757600246621146</v>
+      </c>
+      <c r="G78">
+        <v>0.03003041101777049</v>
+      </c>
+      <c r="H78">
+        <v>0.08098367653256995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1389745192027815</v>
+        <v>0.1442966389095045</v>
       </c>
       <c r="C79">
-        <v>-0.07381327431930175</v>
+        <v>-0.02733388735339364</v>
       </c>
       <c r="D79">
-        <v>-0.02254785152059239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05237882156210105</v>
+      </c>
+      <c r="E79">
+        <v>-0.01809824428958792</v>
+      </c>
+      <c r="F79">
+        <v>0.01609964726926462</v>
+      </c>
+      <c r="G79">
+        <v>0.02195900211759221</v>
+      </c>
+      <c r="H79">
+        <v>-0.1718776680984748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04152923956307799</v>
+        <v>0.04193954366385027</v>
       </c>
       <c r="C80">
-        <v>-0.02432750639009252</v>
+        <v>-0.01010471216163085</v>
       </c>
       <c r="D80">
-        <v>-0.02699646469069658</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0191889887948443</v>
+      </c>
+      <c r="E80">
+        <v>-0.04348855072359111</v>
+      </c>
+      <c r="F80">
+        <v>0.005900821381434562</v>
+      </c>
+      <c r="G80">
+        <v>-0.01230473766799949</v>
+      </c>
+      <c r="H80">
+        <v>-0.03773437617010338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1208193648613069</v>
+        <v>0.1253370718353626</v>
       </c>
       <c r="C81">
-        <v>-0.07396612319853606</v>
+        <v>-0.03531770747251511</v>
       </c>
       <c r="D81">
-        <v>-0.01985753893847953</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03833534295649055</v>
+      </c>
+      <c r="E81">
+        <v>0.008583680516915734</v>
+      </c>
+      <c r="F81">
+        <v>0.01927495151452598</v>
+      </c>
+      <c r="G81">
+        <v>-0.007406293324424648</v>
+      </c>
+      <c r="H81">
+        <v>-0.150095521917192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.128182529601976</v>
+        <v>0.1305023154311206</v>
       </c>
       <c r="C82">
-        <v>-0.07341264457102761</v>
+        <v>-0.03469873007648348</v>
       </c>
       <c r="D82">
-        <v>-0.009076006871141053</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04097781574056134</v>
+      </c>
+      <c r="E82">
+        <v>-0.02324545832943155</v>
+      </c>
+      <c r="F82">
+        <v>0.03838409351763108</v>
+      </c>
+      <c r="G82">
+        <v>-0.004558233838970777</v>
+      </c>
+      <c r="H82">
+        <v>-0.2235243480708065</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06505430935249912</v>
+        <v>0.08211932572480592</v>
       </c>
       <c r="C83">
-        <v>0.01332726000213368</v>
+        <v>0.02620700761616537</v>
       </c>
       <c r="D83">
-        <v>-0.0215643960452886</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01643074840310924</v>
+      </c>
+      <c r="E83">
+        <v>0.01201060599857535</v>
+      </c>
+      <c r="F83">
+        <v>0.03317403345915745</v>
+      </c>
+      <c r="G83">
+        <v>-0.04166134365024536</v>
+      </c>
+      <c r="H83">
+        <v>0.0308173762875902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03108852538683145</v>
+        <v>0.03488602885585559</v>
       </c>
       <c r="C84">
-        <v>-0.04106410849684484</v>
+        <v>-0.0164256755446265</v>
       </c>
       <c r="D84">
-        <v>-0.03291035241452581</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04634421007232055</v>
+      </c>
+      <c r="E84">
+        <v>0.0202448669447801</v>
+      </c>
+      <c r="F84">
+        <v>-0.03831203513992491</v>
+      </c>
+      <c r="G84">
+        <v>-0.02498219698381068</v>
+      </c>
+      <c r="H84">
+        <v>-0.02687643935665601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1148257589477502</v>
+        <v>0.1215668009359433</v>
       </c>
       <c r="C85">
-        <v>-0.04349897549285059</v>
+        <v>-0.008784499503358389</v>
       </c>
       <c r="D85">
-        <v>-0.04722021077319901</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04391123098158952</v>
+      </c>
+      <c r="E85">
+        <v>0.01631066564950731</v>
+      </c>
+      <c r="F85">
+        <v>0.03547950943401566</v>
+      </c>
+      <c r="G85">
+        <v>-0.009150304183462989</v>
+      </c>
+      <c r="H85">
+        <v>-0.1418525021247325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05056045160286599</v>
+        <v>0.0550721779345535</v>
       </c>
       <c r="C86">
-        <v>-0.02743292855921445</v>
+        <v>-0.003960728060869108</v>
       </c>
       <c r="D86">
-        <v>-0.06513798251533014</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0376865975440358</v>
+      </c>
+      <c r="E86">
+        <v>0.03770865668001502</v>
+      </c>
+      <c r="F86">
+        <v>0.02487814646770078</v>
+      </c>
+      <c r="G86">
+        <v>-0.02094120523485463</v>
+      </c>
+      <c r="H86">
+        <v>0.05562463018435365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1207164877154497</v>
+        <v>0.1243823443852488</v>
       </c>
       <c r="C87">
-        <v>-0.08328968324072153</v>
+        <v>-0.02571545898669155</v>
       </c>
       <c r="D87">
-        <v>-0.06395810694549187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07797960922744941</v>
+      </c>
+      <c r="E87">
+        <v>0.0244692919479182</v>
+      </c>
+      <c r="F87">
+        <v>0.02846304676126325</v>
+      </c>
+      <c r="G87">
+        <v>0.1496514658409512</v>
+      </c>
+      <c r="H87">
+        <v>0.06744189525159647</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05404238503132535</v>
+        <v>0.06388745889013074</v>
       </c>
       <c r="C88">
-        <v>-0.03673008732184065</v>
+        <v>-0.01561035143114776</v>
       </c>
       <c r="D88">
-        <v>-0.026286743662313</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04539278083296804</v>
+      </c>
+      <c r="E88">
+        <v>0.002872371081870957</v>
+      </c>
+      <c r="F88">
+        <v>0.02311394279219125</v>
+      </c>
+      <c r="G88">
+        <v>0.0112264157092919</v>
+      </c>
+      <c r="H88">
+        <v>-0.04984944545227944</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07625568674239694</v>
+        <v>0.107122676671611</v>
       </c>
       <c r="C89">
-        <v>-0.05978230807548759</v>
+        <v>-0.1814428459765176</v>
       </c>
       <c r="D89">
-        <v>0.3220644254622856</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3174128347418167</v>
+      </c>
+      <c r="E89">
+        <v>0.05971793186419964</v>
+      </c>
+      <c r="F89">
+        <v>0.06792096884945224</v>
+      </c>
+      <c r="G89">
+        <v>-0.02540241883788695</v>
+      </c>
+      <c r="H89">
+        <v>-0.0210204193125648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05947965899457102</v>
+        <v>0.08096772491876596</v>
       </c>
       <c r="C90">
-        <v>-0.04315230809075352</v>
+        <v>-0.1389389891718451</v>
       </c>
       <c r="D90">
-        <v>0.2795946545626369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2603467671704534</v>
+      </c>
+      <c r="E90">
+        <v>0.05578146319242289</v>
+      </c>
+      <c r="F90">
+        <v>0.03011947156581945</v>
+      </c>
+      <c r="G90">
+        <v>0.03499066634223593</v>
+      </c>
+      <c r="H90">
+        <v>0.01447867397382438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08899999476234557</v>
+        <v>0.08982366451009288</v>
       </c>
       <c r="C91">
-        <v>-0.05680302030302908</v>
+        <v>-0.02145014693612324</v>
       </c>
       <c r="D91">
-        <v>-0.01101359782839229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03784806604077508</v>
+      </c>
+      <c r="E91">
+        <v>0.005721496299966124</v>
+      </c>
+      <c r="F91">
+        <v>0.004098521357418479</v>
+      </c>
+      <c r="G91">
+        <v>-0.020679043080422</v>
+      </c>
+      <c r="H91">
+        <v>-0.08982403882348752</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06164672766791889</v>
+        <v>0.08223771679615323</v>
       </c>
       <c r="C92">
-        <v>-0.05392995637674736</v>
+        <v>-0.1642053039580502</v>
       </c>
       <c r="D92">
-        <v>0.3341472444537257</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3021500334774793</v>
+      </c>
+      <c r="E92">
+        <v>0.04927492184015246</v>
+      </c>
+      <c r="F92">
+        <v>0.03703748798292895</v>
+      </c>
+      <c r="G92">
+        <v>0.008585845302992492</v>
+      </c>
+      <c r="H92">
+        <v>-0.02428191480869147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05228622443247932</v>
+        <v>0.07835806711014073</v>
       </c>
       <c r="C93">
-        <v>-0.0485299410471818</v>
+        <v>-0.1568171804758525</v>
       </c>
       <c r="D93">
-        <v>0.3031327844269041</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2754136324695067</v>
+      </c>
+      <c r="E93">
+        <v>0.02871487817777019</v>
+      </c>
+      <c r="F93">
+        <v>0.02718564892043992</v>
+      </c>
+      <c r="G93">
+        <v>0.01710762294491834</v>
+      </c>
+      <c r="H93">
+        <v>-0.004345793370685049</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1268927725939734</v>
+        <v>0.1256120023569102</v>
       </c>
       <c r="C94">
-        <v>-0.04168761639278104</v>
+        <v>0.002171046583474019</v>
       </c>
       <c r="D94">
-        <v>-0.04418322567764289</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04680265849767329</v>
+      </c>
+      <c r="E94">
+        <v>-0.0203003138624311</v>
+      </c>
+      <c r="F94">
+        <v>0.01848464346313923</v>
+      </c>
+      <c r="G94">
+        <v>-0.03936861412524826</v>
+      </c>
+      <c r="H94">
+        <v>-0.1070045938719439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.117922947548295</v>
+        <v>0.129156619126563</v>
       </c>
       <c r="C95">
-        <v>-0.03522260426260555</v>
+        <v>0.00544386779006766</v>
       </c>
       <c r="D95">
-        <v>-0.05811641326787762</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06308247544082447</v>
+      </c>
+      <c r="E95">
+        <v>0.006955206201388306</v>
+      </c>
+      <c r="F95">
+        <v>0.05668571730745573</v>
+      </c>
+      <c r="G95">
+        <v>0.04517546142058732</v>
+      </c>
+      <c r="H95">
+        <v>0.08847755702945947</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2230666139992867</v>
+        <v>0.1935696027191639</v>
       </c>
       <c r="C97">
-        <v>-0.05758207128724294</v>
+        <v>0.002464792201235268</v>
       </c>
       <c r="D97">
-        <v>0.1171191675380754</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05714455559074099</v>
+      </c>
+      <c r="E97">
+        <v>-0.03354275763885851</v>
+      </c>
+      <c r="F97">
+        <v>-0.9387047183735108</v>
+      </c>
+      <c r="G97">
+        <v>0.06494070701488269</v>
+      </c>
+      <c r="H97">
+        <v>0.02670345150852621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2406332498090538</v>
+        <v>0.2740280739505846</v>
       </c>
       <c r="C98">
-        <v>-0.06906918317265165</v>
+        <v>-0.01971973390034905</v>
       </c>
       <c r="D98">
-        <v>-0.01176782045952663</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04434081101111299</v>
+      </c>
+      <c r="E98">
+        <v>-0.2031961745412205</v>
+      </c>
+      <c r="F98">
+        <v>0.03648570833706233</v>
+      </c>
+      <c r="G98">
+        <v>-0.299911929628146</v>
+      </c>
+      <c r="H98">
+        <v>0.1902006956720234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4442882172293079</v>
+        <v>0.2834511837693221</v>
       </c>
       <c r="C99">
-        <v>0.8797156997372989</v>
+        <v>0.8668448974364791</v>
       </c>
       <c r="D99">
-        <v>0.02339670656731522</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.3647189850518817</v>
+      </c>
+      <c r="E99">
+        <v>0.06354562611555824</v>
+      </c>
+      <c r="F99">
+        <v>0.07655571888570317</v>
+      </c>
+      <c r="G99">
+        <v>0.01338464575447617</v>
+      </c>
+      <c r="H99">
+        <v>-0.06842601237569439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04425102896732867</v>
+        <v>0.04814423240280376</v>
       </c>
       <c r="C101">
-        <v>-0.04079458143941794</v>
+        <v>-0.02773278737437557</v>
       </c>
       <c r="D101">
-        <v>0.0009795434158261099</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01917416294379815</v>
+      </c>
+      <c r="E101">
+        <v>0.05466534365781302</v>
+      </c>
+      <c r="F101">
+        <v>0.01627150609040487</v>
+      </c>
+      <c r="G101">
+        <v>0.00526097702413194</v>
+      </c>
+      <c r="H101">
+        <v>-0.0779576504382717</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
